--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.021120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.021120.xlsx_with_dialog_acts.xlsx
@@ -779,12 +779,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1163,12 +1163,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2015,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2091,12 +2091,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2509,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2623,12 +2623,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3513,12 +3513,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3627,12 +3627,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3817,12 +3817,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4615,12 +4615,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4729,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5071,12 +5071,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5109,12 +5109,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6819,12 +6819,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7503,12 +7503,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7579,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8541,12 +8541,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9423,12 +9423,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9651,12 +9651,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10529,12 +10529,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10719,12 +10719,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10795,12 +10795,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -11023,12 +11023,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11631,12 +11631,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11897,12 +11897,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12011,12 +12011,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12429,12 +12429,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12771,12 +12771,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12847,12 +12847,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12885,12 +12885,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13075,12 +13075,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13341,12 +13341,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13493,12 +13493,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13531,12 +13531,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13801,12 +13801,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13839,12 +13839,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14409,12 +14409,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14447,12 +14447,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14523,12 +14523,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14599,12 +14599,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15207,12 +15207,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15819,12 +15819,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15857,12 +15857,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17039,12 +17039,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17153,12 +17153,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17229,12 +17229,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17765,12 +17765,12 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17803,12 +17803,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18415,12 +18415,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18453,12 +18453,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18491,12 +18491,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18875,12 +18875,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19411,12 +19411,12 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19639,12 +19639,12 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19909,12 +19909,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20137,12 +20137,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20213,12 +20213,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20327,12 +20327,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
